--- a/timetable3.xlsx
+++ b/timetable3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" state="visible" r:id="rId2"/>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">TF1(CI511)-121/BDJ</t>
   </si>
   <si>
-    <t xml:space="preserve">LE3E4(EC612)-118A/ASH, LF7E4(CI511)-226/RUPESH</t>
+    <t xml:space="preserve">LE3E4(EC612)-118A/ASH</t>
   </si>
   <si>
     <t xml:space="preserve">LE5E6(EC511)-228/ANAND</t>
@@ -803,7 +803,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
@@ -892,7 +892,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -910,7 +910,39 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="5" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="3" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="7" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="3" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="8" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -918,87 +950,67 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="9" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="8" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="5" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="3" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="12" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="13" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="12" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="5" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="12" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="9" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="5" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="7" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="9" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1018,25 +1030,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J71"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K44" activeCellId="0" sqref="K44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.5625"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8977272727273"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.5511363636364"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.8977272727273"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.5511363636364"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.47159090909091"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.8977272727273"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.5511363636364"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.9034090909091"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.5454545454545"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.375"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1176,10 +1188,10 @@
         <v>28</v>
       </c>
       <c r="F7" s="9"/>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="14"/>
+      <c r="H7" s="17"/>
       <c r="I7" s="7" t="s">
         <v>30</v>
       </c>
@@ -1196,7 +1208,7 @@
         <v>33</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="18" t="s">
         <v>34</v>
       </c>
       <c r="F8" s="9"/>
@@ -1299,19 +1311,19 @@
     </row>
     <row r="14" customFormat="false" ht="12.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="8"/>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14" t="s">
+      <c r="C14" s="17"/>
+      <c r="D14" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="14"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="14"/>
+      <c r="H14" s="17"/>
       <c r="I14" s="15" t="s">
         <v>53</v>
       </c>
@@ -1321,19 +1333,19 @@
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8"/>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14" t="s">
+      <c r="C15" s="17"/>
+      <c r="D15" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="14"/>
+      <c r="E15" s="17"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="14"/>
+      <c r="H15" s="17"/>
       <c r="I15" s="3" t="s">
         <v>58</v>
       </c>
@@ -1347,7 +1359,7 @@
       <c r="C16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="19" t="s">
         <v>60</v>
       </c>
       <c r="E16" s="15" t="s">
@@ -1499,15 +1511,15 @@
         <v>87</v>
       </c>
       <c r="C24" s="14"/>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="14"/>
+      <c r="E24" s="17"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="H24" s="14"/>
+      <c r="H24" s="17"/>
       <c r="I24" s="13" t="s">
         <v>90</v>
       </c>
@@ -1519,10 +1531,10 @@
         <v>91</v>
       </c>
       <c r="C25" s="14"/>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="19"/>
+      <c r="E25" s="20"/>
       <c r="F25" s="9"/>
       <c r="G25" s="3" t="s">
         <v>93</v>
@@ -1530,10 +1542,10 @@
       <c r="H25" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="I25" s="14" t="s">
+      <c r="I25" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="J25" s="14"/>
+      <c r="J25" s="17"/>
     </row>
     <row r="26" customFormat="false" ht="12.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="8"/>
@@ -1556,10 +1568,10 @@
       <c r="H26" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="I26" s="14" t="s">
+      <c r="I26" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="J26" s="14"/>
+      <c r="J26" s="17"/>
     </row>
     <row r="27" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="8"/>
@@ -1569,10 +1581,10 @@
       <c r="C27" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="21" t="s">
         <v>104</v>
       </c>
       <c r="F27" s="9"/>
@@ -1634,7 +1646,7 @@
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="19" t="s">
         <v>115</v>
       </c>
       <c r="F30" s="9"/>
@@ -1650,7 +1662,7 @@
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="19" t="s">
         <v>117</v>
       </c>
       <c r="F31" s="9"/>
@@ -1666,7 +1678,7 @@
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="21" t="s">
         <v>118</v>
       </c>
       <c r="F32" s="9"/>
@@ -1695,7 +1707,7 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="21"/>
+      <c r="F34" s="22"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -1709,19 +1721,19 @@
       <c r="C35" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="14" t="s">
+      <c r="E35" s="17"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14" t="s">
+      <c r="H35" s="17"/>
+      <c r="I35" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="J35" s="14"/>
+      <c r="J35" s="17"/>
     </row>
     <row r="36" customFormat="false" ht="12.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="8"/>
@@ -1735,7 +1747,7 @@
         <v>127</v>
       </c>
       <c r="E36" s="13"/>
-      <c r="F36" s="21"/>
+      <c r="F36" s="22"/>
       <c r="G36" s="3" t="s">
         <v>97</v>
       </c>
@@ -1759,7 +1771,7 @@
         <v>131</v>
       </c>
       <c r="E37" s="13"/>
-      <c r="F37" s="21"/>
+      <c r="F37" s="22"/>
       <c r="G37" s="3" t="s">
         <v>132</v>
       </c>
@@ -1779,13 +1791,13 @@
       <c r="C38" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="19" t="s">
         <v>136</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F38" s="21"/>
+      <c r="F38" s="22"/>
       <c r="G38" s="4" t="s">
         <v>98</v>
       </c>
@@ -1801,13 +1813,13 @@
       <c r="C39" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="21" t="s">
         <v>139</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F39" s="21"/>
+      <c r="F39" s="22"/>
       <c r="G39" s="7" t="s">
         <v>140</v>
       </c>
@@ -1823,11 +1835,11 @@
       <c r="C40" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="21" t="s">
         <v>143</v>
       </c>
       <c r="E40" s="2"/>
-      <c r="F40" s="21"/>
+      <c r="F40" s="22"/>
       <c r="G40" s="3" t="s">
         <v>144</v>
       </c>
@@ -1843,11 +1855,11 @@
       <c r="C41" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="19" t="s">
         <v>146</v>
       </c>
       <c r="E41" s="2"/>
-      <c r="F41" s="21"/>
+      <c r="F41" s="22"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -1861,7 +1873,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="21"/>
+      <c r="F42" s="22"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -1869,15 +1881,15 @@
     </row>
     <row r="43" customFormat="false" ht="12.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="8"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
     </row>
     <row r="44" customFormat="false" ht="12.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
@@ -1950,11 +1962,11 @@
       <c r="B47" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="C47" s="24" t="s">
         <v>129</v>
       </c>
       <c r="D47" s="2"/>
-      <c r="E47" s="20" t="s">
+      <c r="E47" s="21" t="s">
         <v>158</v>
       </c>
       <c r="F47" s="9"/>
@@ -1974,11 +1986,11 @@
       <c r="B48" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="24" t="s">
         <v>135</v>
       </c>
       <c r="D48" s="2"/>
-      <c r="E48" s="18" t="s">
+      <c r="E48" s="19" t="s">
         <v>162</v>
       </c>
       <c r="F48" s="9"/>
@@ -1998,7 +2010,7 @@
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="20" t="s">
+      <c r="E49" s="21" t="s">
         <v>39</v>
       </c>
       <c r="F49" s="9"/>
@@ -2018,10 +2030,10 @@
         <v>83</v>
       </c>
       <c r="F50" s="9"/>
-      <c r="G50" s="14" t="s">
+      <c r="G50" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="H50" s="14"/>
+      <c r="H50" s="17"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
@@ -2054,7 +2066,7 @@
       <c r="J52" s="2"/>
     </row>
     <row r="53" customFormat="false" ht="12.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="24" t="s">
+      <c r="A53" s="25" t="s">
         <v>169</v>
       </c>
       <c r="B53" s="2"/>
@@ -2068,7 +2080,7 @@
       <c r="J53" s="2"/>
     </row>
     <row r="54" customFormat="false" ht="12.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="24"/>
+      <c r="A54" s="25"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -2087,7 +2099,7 @@
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
-      <c r="F55" s="18" t="s">
+      <c r="F55" s="19" t="s">
         <v>171</v>
       </c>
       <c r="G55" s="3" t="s">
@@ -2104,7 +2116,7 @@
       <c r="B56" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C56" s="23" t="s">
+      <c r="C56" s="24" t="s">
         <v>172</v>
       </c>
       <c r="D56" s="3" t="s">
@@ -2128,7 +2140,7 @@
       <c r="B57" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="C57" s="26" t="s">
         <v>178</v>
       </c>
       <c r="D57" s="10" t="s">
@@ -2165,18 +2177,18 @@
       <c r="G58" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="H58" s="14" t="s">
+      <c r="H58" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="9"/>
       <c r="B59" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C59" s="25" t="s">
+      <c r="C59" s="26" t="s">
         <v>190</v>
       </c>
       <c r="D59" s="10" t="s">
@@ -2189,24 +2201,24 @@
       <c r="G59" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="H59" s="14" t="s">
+      <c r="H59" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="28"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="9"/>
       <c r="B60" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C60" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="D60" s="26" t="s">
+      <c r="D60" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="E60" s="26"/>
+      <c r="E60" s="29"/>
       <c r="F60" s="4" t="s">
         <v>198</v>
       </c>
@@ -2224,7 +2236,7 @@
       <c r="B61" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="C61" s="25" t="s">
+      <c r="C61" s="26" t="s">
         <v>201</v>
       </c>
       <c r="D61" s="7" t="s">
@@ -2248,13 +2260,13 @@
       <c r="B62" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C62" s="25" t="s">
+      <c r="C62" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="D62" s="17" t="s">
+      <c r="D62" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="E62" s="17"/>
+      <c r="E62" s="18"/>
       <c r="F62" s="4" t="s">
         <v>209</v>
       </c>
@@ -2272,13 +2284,13 @@
       <c r="B63" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C63" s="25" t="s">
+      <c r="C63" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="D63" s="25" t="s">
+      <c r="D63" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="E63" s="25"/>
+      <c r="E63" s="26"/>
       <c r="F63" s="15" t="s">
         <v>215</v>
       </c>
@@ -2296,31 +2308,31 @@
       <c r="B64" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C64" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="D64" s="19" t="s">
+      <c r="D64" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="E64" s="19"/>
-      <c r="F64" s="20" t="s">
+      <c r="E64" s="20"/>
+      <c r="F64" s="21" t="s">
         <v>221</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="H64" s="14" t="s">
+      <c r="H64" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="9"/>
       <c r="B65" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C65" s="25" t="s">
+      <c r="C65" s="26" t="s">
         <v>224</v>
       </c>
       <c r="D65" s="10" t="s">
@@ -2419,10 +2431,10 @@
       <c r="C69" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="D69" s="14" t="s">
+      <c r="D69" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="E69" s="14"/>
+      <c r="E69" s="17"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
@@ -2437,10 +2449,10 @@
       <c r="C70" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D70" s="14" t="s">
+      <c r="D70" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="E70" s="14"/>
+      <c r="E70" s="17"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
@@ -2455,16 +2467,18 @@
       <c r="C71" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="D71" s="19" t="s">
+      <c r="D71" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="E71" s="19"/>
+      <c r="E71" s="20"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
     </row>
+    <row r="72" customFormat="false" ht="12.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="12.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="76">
     <mergeCell ref="A1:J1"/>
@@ -2546,7 +2560,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
